--- a/src/ExcelsiorClosedXml.Tests/Tests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.Whitespace.verified.xlsx
@@ -43,6 +43,9 @@
   </x:si>
   <x:si>
     <x:t>john@company.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
   <x:si>
     <x:t>False</x:t>
@@ -94,24 +97,17 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -460,17 +456,17 @@
       <x:c r="C2" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D2" s="2">
-        <x:v>-1</x:v>
+      <x:c r="D2" s="1" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="1">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G2" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/ExcelsiorClosedXml.Tests/Tests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.Whitespace.verified.xlsx
@@ -108,7 +108,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -414,13 +414,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.996339" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.996339" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="8.853482" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.996339" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.996339" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/src/ExcelsiorClosedXml.Tests/Tests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.Whitespace.verified.xlsx
@@ -43,9 +43,6 @@
   </x:si>
   <x:si>
     <x:t>john@company.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
   </x:si>
   <x:si>
     <x:t>False</x:t>
@@ -456,17 +453,15 @@
       <x:c r="C2" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
+      <x:c r="D2" s="1"/>
       <x:c r="E2" s="1">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
